--- a/informe/ProbabilidadDeCruce.xlsx
+++ b/informe/ProbabilidadDeCruce.xlsx
@@ -9,6 +9,20 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$K$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$K$30:$K$34</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Hoja1!$Q$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Hoja1!$Q$30:$Q$34</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$L$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$L$30:$L$34</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$G$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$G$30:$G$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$H$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$H$30:$H$34</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$P$29</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$P$30:$P$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>SOM-b_11</t>
   </si>
@@ -40,6 +54,21 @@
   </si>
   <si>
     <t>Prob Cruce 90%</t>
+  </si>
+  <si>
+    <t>MDG-a_21</t>
+  </si>
+  <si>
+    <t>MDG-a_22</t>
+  </si>
+  <si>
+    <t>MDG-a_23</t>
+  </si>
+  <si>
+    <t>Prob 70%</t>
+  </si>
+  <si>
+    <t>Prob 90%</t>
   </si>
 </sst>
 </file>
@@ -477,7 +506,358 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>MDG-a_21</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D8434E33-9280-4C41-AC0A-2E67E1F8800E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Prob 70%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7A68EB75-7E11-4991-8000-D91DAE3444B8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Prob 90%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>MDG-a_22</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{067A89FB-D53F-4A2E-9918-9936D1630A42}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Prob 70%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{94CDA911-AD6D-48E4-ACBF-59F2D055E075}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Prob 90%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>MDG-a_23</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{AAAA0971-035A-4123-82E9-7EDCADB0FEA1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Prob 70%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C3040C7A-EDF9-4F08-A16A-6CD6C5458629}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Prob 90%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1033,6 +1413,1449 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1063,6 +2886,210 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1331,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S16"/>
+  <dimension ref="B4:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,6 +3600,137 @@
         <v>0.28361994019534914</v>
       </c>
     </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>111768</v>
+      </c>
+      <c r="H30">
+        <v>112320</v>
+      </c>
+      <c r="K30">
+        <v>112342</v>
+      </c>
+      <c r="L30">
+        <v>112242</v>
+      </c>
+      <c r="P30">
+        <v>111594</v>
+      </c>
+      <c r="Q30">
+        <v>111708</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>111945</v>
+      </c>
+      <c r="H31">
+        <v>111951</v>
+      </c>
+      <c r="K31">
+        <v>111871</v>
+      </c>
+      <c r="L31">
+        <v>111962</v>
+      </c>
+      <c r="P31">
+        <v>111922</v>
+      </c>
+      <c r="Q31">
+        <v>112265</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>111488</v>
+      </c>
+      <c r="H32">
+        <v>112154</v>
+      </c>
+      <c r="K32">
+        <v>112379</v>
+      </c>
+      <c r="L32">
+        <v>112168</v>
+      </c>
+      <c r="P32">
+        <v>111909</v>
+      </c>
+      <c r="Q32">
+        <v>112273</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>111611</v>
+      </c>
+      <c r="H33">
+        <v>111932</v>
+      </c>
+      <c r="K33">
+        <v>111664</v>
+      </c>
+      <c r="L33">
+        <v>112150</v>
+      </c>
+      <c r="P33">
+        <v>112127</v>
+      </c>
+      <c r="Q33">
+        <v>111613</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>112146</v>
+      </c>
+      <c r="H34">
+        <v>112443</v>
+      </c>
+      <c r="K34">
+        <v>111621</v>
+      </c>
+      <c r="L34">
+        <v>111790</v>
+      </c>
+      <c r="P34">
+        <v>112054</v>
+      </c>
+      <c r="Q34">
+        <v>112065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
